--- a/13. Monthly Budget.xlsx
+++ b/13. Monthly Budget.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moin\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5ECF39-08FD-4BB5-AB4B-2B2902A44BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DF3D26-6576-4E02-9371-B7A6E78175F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0525C57C-F6D3-4E5A-BABF-0921013F3FE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0525C57C-F6D3-4E5A-BABF-0921013F3FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Budget " sheetId="3" r:id="rId1"/>
+    <sheet name="Monthly Budget  (2)" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Bills</t>
   </si>
@@ -58,6 +59,9 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Percent</t>
+  </si>
 </sst>
 </file>
 
@@ -67,7 +71,14 @@
     <numFmt numFmtId="166" formatCode="mmm/yyyy"/>
     <numFmt numFmtId="169" formatCode="mmm/dd/ddd/yyyy/mmm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,29 +112,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,10 +454,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF16D73-07B9-460A-92EB-0A055A3AA27D}">
+  <dimension ref="A2:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44593</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44621</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="2">
+        <f>SUM(B3:D3)</f>
+        <v>3000</v>
+      </c>
+      <c r="F3" s="1">
+        <f>E3/E$8</f>
+        <v>0.58536585365853655</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E8" si="0">SUM(B4:D4)</f>
+        <v>350</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F7" si="1">E4/E$8</f>
+        <v>6.8292682926829273E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <f>I$4*$M4</f>
+        <v>50</v>
+      </c>
+      <c r="O4" s="1">
+        <f>J$4*$M4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>150</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1">
+        <v>175</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1024390243902439</v>
+      </c>
+      <c r="M5" s="1">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" ref="N5:N7" si="2">I$4*$M5</f>
+        <v>60</v>
+      </c>
+      <c r="O5" s="1">
+        <f>J$4*$M5</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>300</v>
+      </c>
+      <c r="C6" s="1">
+        <v>275</v>
+      </c>
+      <c r="D6" s="1">
+        <v>350</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>925</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18048780487804877</v>
+      </c>
+      <c r="M6" s="1">
+        <v>7</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="O6" s="1">
+        <f>J$4*$M6</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>125</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3414634146341464E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>8</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="O7" s="1">
+        <f>J$4*$M7</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <f>SUM(B3:B7)</f>
+        <v>1675</v>
+      </c>
+      <c r="C8" s="2">
+        <f>SUM(C3:C7)</f>
+        <v>1700</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(D3:D7)</f>
+        <v>1750</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>5125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B8:D8" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C79055A-5DDB-4DD7-8258-797C0A05ECC1}">
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I2" sqref="I2:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -467,6 +716,9 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -486,6 +738,10 @@
         <f>SUM(B3:D3)</f>
         <v>3000</v>
       </c>
+      <c r="F3" s="6">
+        <f>E3/$E$8</f>
+        <v>0.58536585365853655</v>
+      </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -493,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1">
         <v>125</v>
@@ -502,8 +758,12 @@
         <v>100</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E7" si="0">SUM(B4:D4)</f>
-        <v>325</v>
+        <f t="shared" ref="E4:E8" si="0">SUM(B4:D4)</f>
+        <v>350</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F7" si="1">E4/$E$8</f>
+        <v>6.8292682926829273E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -523,6 +783,10 @@
         <f t="shared" si="0"/>
         <v>525</v>
       </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.1024390243902439</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -535,11 +799,15 @@
         <v>275</v>
       </c>
       <c r="D6" s="1">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>725</v>
+        <v>925</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.18048780487804877</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -559,6 +827,10 @@
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>6.3414634146341464E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -566,7 +838,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B3:B7)</f>
-        <v>1650</v>
+        <v>1675</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C3:C7)</f>
@@ -574,14 +846,23 @@
       </c>
       <c r="D8" s="2">
         <f>SUM(D3:D7)</f>
-        <v>1550</v>
+        <v>1750</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>5125</v>
+      </c>
+      <c r="F8" s="7">
+        <f>SUM(F3:F7)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B8:D8" formulaRange="1"/>
+    <ignoredError sqref="B8:C8 D8" formulaRange="1"/>
+    <ignoredError sqref="E8" formula="1" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/13. Monthly Budget.xlsx
+++ b/13. Monthly Budget.xlsx
@@ -8,36 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moin\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DF3D26-6576-4E02-9371-B7A6E78175F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D285552-F437-4571-8193-BE80498F0A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0525C57C-F6D3-4E5A-BABF-0921013F3FE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0525C57C-F6D3-4E5A-BABF-0921013F3FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Budget " sheetId="3" r:id="rId1"/>
     <sheet name="Monthly Budget  (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="MINIFS n MAXIFS" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Bills</t>
   </si>
@@ -61,6 +51,45 @@
   </si>
   <si>
     <t>Percent</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Saleem</t>
+  </si>
+  <si>
+    <t>Ayaan</t>
+  </si>
+  <si>
+    <t>Naman</t>
+  </si>
+  <si>
+    <t>Ayaan Total</t>
+  </si>
+  <si>
+    <t>Naman Total</t>
+  </si>
+  <si>
+    <t>Saleem Total</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Ayaan Min</t>
+  </si>
+  <si>
+    <t>Ayaan Max</t>
+  </si>
+  <si>
+    <t>Ayaan Sum</t>
   </si>
 </sst>
 </file>
@@ -68,8 +97,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="mmm/yyyy"/>
-    <numFmt numFmtId="169" formatCode="mmm/dd/ddd/yyyy/mmm"/>
+    <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mmm/dd/ddd/yyyy/mmm"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -127,10 +156,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -454,240 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF16D73-07B9-460A-92EB-0A055A3AA27D}">
-  <dimension ref="A2:O8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>44562</v>
-      </c>
-      <c r="C2" s="4">
-        <v>44593</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44621</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="2">
-        <f>SUM(B3:D3)</f>
-        <v>3000</v>
-      </c>
-      <c r="F3" s="1">
-        <f>E3/E$8</f>
-        <v>0.58536585365853655</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>125</v>
-      </c>
-      <c r="C4" s="1">
-        <v>125</v>
-      </c>
-      <c r="D4" s="1">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E8" si="0">SUM(B4:D4)</f>
-        <v>350</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F7" si="1">E4/E$8</f>
-        <v>6.8292682926829273E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
-        <v>20</v>
-      </c>
-      <c r="M4" s="1">
-        <v>5</v>
-      </c>
-      <c r="N4" s="1">
-        <f>I$4*$M4</f>
-        <v>50</v>
-      </c>
-      <c r="O4" s="1">
-        <f>J$4*$M4</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>150</v>
-      </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-      <c r="D5" s="1">
-        <v>175</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>525</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1024390243902439</v>
-      </c>
-      <c r="M5" s="1">
-        <v>6</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" ref="N5:N7" si="2">I$4*$M5</f>
-        <v>60</v>
-      </c>
-      <c r="O5" s="1">
-        <f>J$4*$M5</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>300</v>
-      </c>
-      <c r="C6" s="1">
-        <v>275</v>
-      </c>
-      <c r="D6" s="1">
-        <v>350</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>925</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.18048780487804877</v>
-      </c>
-      <c r="M6" s="1">
-        <v>7</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="O6" s="1">
-        <f>J$4*$M6</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>100</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1">
-        <v>125</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>6.3414634146341464E-2</v>
-      </c>
-      <c r="M7" s="1">
-        <v>8</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="O7" s="1">
-        <f>J$4*$M7</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <f>SUM(B3:B7)</f>
-        <v>1675</v>
-      </c>
-      <c r="C8" s="2">
-        <f>SUM(C3:C7)</f>
-        <v>1700</v>
-      </c>
-      <c r="D8" s="2">
-        <f>SUM(D3:D7)</f>
-        <v>1750</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>5125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B8:D8" formulaRange="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C79055A-5DDB-4DD7-8258-797C0A05ECC1}">
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:Q9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -738,8 +537,8 @@
         <f>SUM(B3:D3)</f>
         <v>3000</v>
       </c>
-      <c r="F3" s="6">
-        <f>E3/$E$8</f>
+      <c r="F3" s="1">
+        <f>E3/E$8</f>
         <v>0.58536585365853655</v>
       </c>
       <c r="G3" s="5"/>
@@ -761,8 +560,8 @@
         <f t="shared" ref="E4:E8" si="0">SUM(B4:D4)</f>
         <v>350</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F7" si="1">E4/$E$8</f>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F7" si="1">E4/E$8</f>
         <v>6.8292682926829273E-2</v>
       </c>
     </row>
@@ -783,7 +582,7 @@
         <f t="shared" si="0"/>
         <v>525</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>0.1024390243902439</v>
       </c>
@@ -805,7 +604,7 @@
         <f t="shared" si="0"/>
         <v>925</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>0.18048780487804877</v>
       </c>
@@ -827,7 +626,7 @@
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>6.3414634146341464E-2</v>
       </c>
@@ -851,18 +650,478 @@
       <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>5125</v>
-      </c>
-      <c r="F8" s="7">
-        <f>SUM(F3:F7)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B8:C8 D8" formulaRange="1"/>
-    <ignoredError sqref="E8" formula="1" formulaRange="1"/>
+    <ignoredError sqref="B8:D8" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C79055A-5DDB-4DD7-8258-797C0A05ECC1}">
+  <dimension ref="A2:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44593</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44621</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="2">
+        <f>SUM(B3:D3)</f>
+        <v>3000</v>
+      </c>
+      <c r="F3" s="6">
+        <f>E3/$E$8</f>
+        <v>0.58536585365853655</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E8" si="0">SUM(B4:D4)</f>
+        <v>350</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F7" si="1">E4/$E$8</f>
+        <v>6.8292682926829273E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>150</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1">
+        <v>175</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.1024390243902439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>300</v>
+      </c>
+      <c r="C6" s="1">
+        <v>275</v>
+      </c>
+      <c r="D6" s="1">
+        <v>350</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>925</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.18048780487804877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>125</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>6.3414634146341464E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <f>SUM(B$3:B$7)</f>
+        <v>1675</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:D8" si="2">SUM(C$3:C$7)</f>
+        <v>1700</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>5125</v>
+      </c>
+      <c r="F8" s="7">
+        <f>SUM(F3:F7)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB58E34-8B72-4003-899B-111F504A93AF}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>500</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <f>_xlfn.MINIFS($A$2:$A$18,$B$2:$B$18,"Ayaan")</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>900</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
+        <f>_xlfn.MAXIFS($A$2:$A$18,$B$2:$B$18,"Ayaan")</f>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5900</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <f>SUMIFS($A$2:$A$18,$B$2:$B$18,"Ayaan")</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>700</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <f>SUBTOTAL(9,A2:A5)</f>
+        <v>8000</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>450</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <f>_xlfn.MINIFS($A$2:$A$18,$B$2:$B$18,"Naman")</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>200</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <f>_xlfn.MAXIFS($A$2:$A$18,$B$2:$B$18,"Naman")</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>500</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <f>SUMIFS($A$2:$A$18,$B$2:$B$18,"Naman")</f>
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f>SUBTOTAL(9,A7:A11)</f>
+        <v>1340</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1">
+        <f>_xlfn.MINIFS($A$2:$A$18,$B$2:$B$18,"Saleem")</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1">
+        <f>_xlfn.MAXIFS($A$2:$A$18,$B$2:$B$18,"Saleem")</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUMIFS($A$2:$A$18,$B$2:$B$18,"Saleem")</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>500</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f>SUBTOTAL(9,A13:A17)</f>
+        <v>7000</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <f>SUBTOTAL(9,A2:A17)</f>
+        <v>16340</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+    <sortCondition ref="B2:B17"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/13. Monthly Budget.xlsx
+++ b/13. Monthly Budget.xlsx
@@ -8,36 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moin\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DF3D26-6576-4E02-9371-B7A6E78175F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2982F72-741A-4C0F-8273-3D3E809E2B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0525C57C-F6D3-4E5A-BABF-0921013F3FE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0525C57C-F6D3-4E5A-BABF-0921013F3FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Budget " sheetId="3" r:id="rId1"/>
     <sheet name="Monthly Budget  (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="MINIFS n MAXIFS" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Bills</t>
   </si>
@@ -61,6 +51,45 @@
   </si>
   <si>
     <t>Percent</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Saleem</t>
+  </si>
+  <si>
+    <t>Ayaan</t>
+  </si>
+  <si>
+    <t>Naman</t>
+  </si>
+  <si>
+    <t>Ayaan Total</t>
+  </si>
+  <si>
+    <t>Naman Total</t>
+  </si>
+  <si>
+    <t>Saleem Total</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Ayaan Min</t>
+  </si>
+  <si>
+    <t>Ayaan Max</t>
+  </si>
+  <si>
+    <t>Ayaan Sum</t>
   </si>
 </sst>
 </file>
@@ -68,8 +97,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="mmm/yyyy"/>
-    <numFmt numFmtId="169" formatCode="mmm/dd/ddd/yyyy/mmm"/>
+    <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mmm/dd/ddd/yyyy/mmm"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -127,10 +156,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -684,10 +713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C79055A-5DDB-4DD7-8258-797C0A05ECC1}">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -700,7 +729,7 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -721,7 +750,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -743,8 +772,9 @@
         <v>0.58536585365853655</v>
       </c>
       <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -766,7 +796,7 @@
         <v>6.8292682926829273E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,7 +818,7 @@
         <v>0.1024390243902439</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,7 +840,7 @@
         <v>0.18048780487804877</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -832,20 +862,20 @@
         <v>6.3414634146341464E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <f>SUM(B3:B7)</f>
+        <f>SUM(B$3:B$7)</f>
         <v>1675</v>
       </c>
       <c r="C8" s="2">
-        <f>SUM(C3:C7)</f>
+        <f t="shared" ref="C8:D8" si="2">SUM(C$3:C$7)</f>
         <v>1700</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(D3:D7)</f>
+        <f t="shared" si="2"/>
         <v>1750</v>
       </c>
       <c r="E8" s="2">
@@ -860,9 +890,288 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B8:C8 D8" formulaRange="1"/>
-    <ignoredError sqref="E8" formula="1" formulaRange="1"/>
-  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB58E34-8B72-4003-899B-111F504A93AF}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>500</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <f>_xlfn.MINIFS($A$2:$A$18,$B$2:$B$18,"Ayaan")</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>900</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
+        <f>_xlfn.MAXIFS($A$2:$A$18,$B$2:$B$18,"Ayaan")</f>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5900</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <f>SUMIFS($A$2:$A$18,$B$2:$B$18,"Ayaan")</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>700</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <f>SUBTOTAL(9,A2:A5)</f>
+        <v>8000</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>450</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <f>_xlfn.MINIFS($A$2:$A$18,$B$2:$B$18,"Naman")</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>200</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <f>_xlfn.MAXIFS($A$2:$A$18,$B$2:$B$18,"Naman")</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>500</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <f>SUMIFS($A$2:$A$18,$B$2:$B$18,"Naman")</f>
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f>SUBTOTAL(9,A7:A11)</f>
+        <v>1340</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1">
+        <f>_xlfn.MINIFS($A$2:$A$18,$B$2:$B$18,"Saleem")</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1">
+        <f>_xlfn.MAXIFS($A$2:$A$18,$B$2:$B$18,"Saleem")</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUMIFS($A$2:$A$18,$B$2:$B$18,"Saleem")</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>500</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f>SUBTOTAL(9,A13:A17)</f>
+        <v>7000</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <f>SUBTOTAL(9,A2:A17)</f>
+        <v>16340</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+    <sortCondition ref="B2:B17"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/13. Monthly Budget.xlsx
+++ b/13. Monthly Budget.xlsx
@@ -2,20 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moin\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D285552-F437-4571-8193-BE80498F0A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0570989E-E024-4CE3-AA1D-32A9F3E44171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0525C57C-F6D3-4E5A-BABF-0921013F3FE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{0525C57C-F6D3-4E5A-BABF-0921013F3FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Budget " sheetId="3" r:id="rId1"/>
     <sheet name="Monthly Budget  (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="MINIFS n MAXIFS" sheetId="5" r:id="rId3"/>
+    <sheet name="Monthly Budget - with new bill " sheetId="6" r:id="rId3"/>
+    <sheet name="Monthly Budget - Formatted" sheetId="9" r:id="rId4"/>
+    <sheet name="MINIFS n MAXIFS" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>Bills</t>
   </si>
@@ -86,10 +88,43 @@
     <t>Ayaan Min</t>
   </si>
   <si>
+    <t>Naman Min</t>
+  </si>
+  <si>
+    <t>Saleem Min</t>
+  </si>
+  <si>
     <t>Ayaan Max</t>
   </si>
   <si>
     <t>Ayaan Sum</t>
+  </si>
+  <si>
+    <t>Ayaan Avg</t>
+  </si>
+  <si>
+    <t>Naman Avg</t>
+  </si>
+  <si>
+    <t>Saleem Avg</t>
+  </si>
+  <si>
+    <t>Naman Max</t>
+  </si>
+  <si>
+    <t>Naman Sum</t>
+  </si>
+  <si>
+    <t>Saleem Max</t>
+  </si>
+  <si>
+    <t>Saleem Sum</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>MONTHLY BUDGET</t>
   </si>
 </sst>
 </file>
@@ -100,7 +135,7 @@
     <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm/dd/ddd/yyyy/mmm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +158,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Bauhaus 93"/>
+      <family val="5"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -168,6 +228,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF16D73-07B9-460A-92EB-0A055A3AA27D}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -640,15 +714,15 @@
         <v>1675</v>
       </c>
       <c r="C8" s="2">
-        <f>SUM(C3:C7)</f>
+        <f t="shared" ref="C8:E8" si="2">SUM(C3:C7)</f>
         <v>1700</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(D3:D7)</f>
+        <f t="shared" si="2"/>
         <v>1750</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5125</v>
       </c>
     </row>
@@ -656,17 +730,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B8:D8" formulaRange="1"/>
+    <ignoredError sqref="C8:D8" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C79055A-5DDB-4DD7-8258-797C0A05ECC1}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:N16"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -844,21 +919,498 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB58E34-8B72-4003-899B-111F504A93AF}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC081F5-C70B-47CA-BF53-D6AD666584F3}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A2:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44593</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44621</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44652</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F3" s="2">
+        <f>SUM(B3:E3)</f>
+        <v>4100</v>
+      </c>
+      <c r="G3" s="6">
+        <f>F3/$F$9</f>
+        <v>0.57023643949930458</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
+        <v>125</v>
+      </c>
+      <c r="F4" s="2">
+        <f>SUM(B4:E4)</f>
+        <v>475</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G8" si="0">F4/$F$9</f>
+        <v>6.6063977746870658E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2">
+        <f>SUM(B5:E5)</f>
+        <v>190</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6425591098748261E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1">
+        <v>200</v>
+      </c>
+      <c r="D6" s="1">
+        <v>175</v>
+      </c>
+      <c r="E6" s="1">
+        <v>150</v>
+      </c>
+      <c r="F6" s="2">
+        <f>SUM(B6:E6)</f>
+        <v>675</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>9.3880389429763567E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>300</v>
+      </c>
+      <c r="C7" s="1">
+        <v>275</v>
+      </c>
+      <c r="D7" s="1">
+        <v>350</v>
+      </c>
+      <c r="E7" s="1">
+        <v>400</v>
+      </c>
+      <c r="F7" s="2">
+        <f>SUM(B7:E7)</f>
+        <v>1325</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18428372739916551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1">
+        <v>125</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2">
+        <f>SUM(B8:E8)</f>
+        <v>425</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>5.9109874826147428E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <f>SUM(B$3:B$8)</f>
+        <v>1725</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:E9" si="1">SUM(C$3:C$8)</f>
+        <v>1750</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>1915</v>
+      </c>
+      <c r="F9" s="2">
+        <f>SUM(F3:F8)</f>
+        <v>7190</v>
+      </c>
+      <c r="G9" s="7">
+        <f>SUM(G3:G8)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64495D6E-49F5-467E-9DFF-67A752E163A3}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="8"/>
+    <col min="8" max="8" width="16.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44593</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44621</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44652</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1100</v>
+      </c>
+      <c r="F3" s="9">
+        <f>SUM(B3:E3)</f>
+        <v>4100</v>
+      </c>
+      <c r="G3" s="10">
+        <f>F3/$F$9</f>
+        <v>0.57023643949930458</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>125</v>
+      </c>
+      <c r="C4" s="8">
+        <v>125</v>
+      </c>
+      <c r="D4" s="8">
+        <v>100</v>
+      </c>
+      <c r="E4" s="8">
+        <v>125</v>
+      </c>
+      <c r="F4" s="9">
+        <f>SUM(B4:E4)</f>
+        <v>475</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" ref="G4:G8" si="0">F4/$F$9</f>
+        <v>6.6063977746870658E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8">
+        <v>50</v>
+      </c>
+      <c r="C5" s="8">
+        <v>50</v>
+      </c>
+      <c r="D5" s="8">
+        <v>50</v>
+      </c>
+      <c r="E5" s="8">
+        <v>40</v>
+      </c>
+      <c r="F5" s="9">
+        <f>SUM(B5:E5)</f>
+        <v>190</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6425591098748261E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8">
+        <v>150</v>
+      </c>
+      <c r="C6" s="8">
+        <v>200</v>
+      </c>
+      <c r="D6" s="8">
+        <v>175</v>
+      </c>
+      <c r="E6" s="8">
+        <v>150</v>
+      </c>
+      <c r="F6" s="9">
+        <f>SUM(B6:E6)</f>
+        <v>675</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="0"/>
+        <v>9.3880389429763567E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8">
+        <v>300</v>
+      </c>
+      <c r="C7" s="8">
+        <v>275</v>
+      </c>
+      <c r="D7" s="8">
+        <v>350</v>
+      </c>
+      <c r="E7" s="8">
+        <v>400</v>
+      </c>
+      <c r="F7" s="9">
+        <f>SUM(B7:E7)</f>
+        <v>1325</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18428372739916551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8">
+        <v>100</v>
+      </c>
+      <c r="C8" s="8">
+        <v>100</v>
+      </c>
+      <c r="D8" s="8">
+        <v>125</v>
+      </c>
+      <c r="E8" s="8">
+        <v>100</v>
+      </c>
+      <c r="F8" s="9">
+        <f>SUM(B8:E8)</f>
+        <v>425</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="0"/>
+        <v>5.9109874826147428E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13">
+        <f>SUM(B$3:B$8)</f>
+        <v>1725</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" ref="C9:E9" si="1">SUM(C$3:C$8)</f>
+        <v>1750</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
+        <v>1915</v>
+      </c>
+      <c r="F9" s="13">
+        <f>SUM(F3:F8)</f>
+        <v>7190</v>
+      </c>
+      <c r="G9" s="14">
+        <f>SUM(G3:G8)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB58E34-8B72-4003-899B-111F504A93AF}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -871,7 +1423,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>500</v>
       </c>
@@ -887,7 +1439,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>900</v>
       </c>
@@ -896,14 +1448,18 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1">
         <f>_xlfn.MAXIFS($A$2:$A$18,$B$2:$B$18,"Ayaan")</f>
         <v>5900</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f>COUNT(E2:E16)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5900</v>
       </c>
@@ -912,14 +1468,18 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1">
         <f>SUMIFS($A$2:$A$18,$B$2:$B$18,"Ayaan")</f>
         <v>8000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f>COUNTBLANK(E2:E16)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>700</v>
       </c>
@@ -927,10 +1487,19 @@
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1">
+        <f>AVERAGEIFS($A$2:$A$18,$B$2:$B$18,"Ayaan")</f>
+        <v>2000</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIF(A2:A18,"&gt;5000")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f>SUBTOTAL(9,A2:A5)</f>
         <v>8000</v>
@@ -941,8 +1510,12 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f>COUNTIFS(B2:B18,"Saleem",A2:A18, "&gt;2000")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>450</v>
       </c>
@@ -951,14 +1524,14 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1">
         <f>_xlfn.MINIFS($A$2:$A$18,$B$2:$B$18,"Naman")</f>
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>200</v>
       </c>
@@ -967,14 +1540,14 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1">
         <f>_xlfn.MAXIFS($A$2:$A$18,$B$2:$B$18,"Naman")</f>
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>500</v>
       </c>
@@ -983,14 +1556,14 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1">
         <f>SUMIFS($A$2:$A$18,$B$2:$B$18,"Naman")</f>
         <v>1340</v>
       </c>
     </row>
-    <row r="10" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>90</v>
       </c>
@@ -998,10 +1571,15 @@
         <v>13</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1">
+        <f>AVERAGEIFS($A$2:$A$18,$B$2:$B$18,"Naman")</f>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>100</v>
       </c>
@@ -1012,7 +1590,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f>SUBTOTAL(9,A7:A11)</f>
         <v>1340</v>
@@ -1024,7 +1602,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
@@ -1033,14 +1611,14 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
         <f>_xlfn.MINIFS($A$2:$A$18,$B$2:$B$18,"Saleem")</f>
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1500</v>
       </c>
@@ -1049,14 +1627,14 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1">
         <f>_xlfn.MAXIFS($A$2:$A$18,$B$2:$B$18,"Saleem")</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3000</v>
       </c>
@@ -1065,14 +1643,14 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1">
         <f>SUMIFS($A$2:$A$18,$B$2:$B$18,"Saleem")</f>
         <v>7000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>500</v>
       </c>
@@ -1080,8 +1658,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1">
+        <f>AVERAGEIFS($A$2:$A$18,$B$2:$B$18,"Saleem")</f>
+        <v>1400</v>
+      </c>
     </row>
     <row r="17" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">

--- a/13. Monthly Budget.xlsx
+++ b/13. Monthly Budget.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moin\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0570989E-E024-4CE3-AA1D-32A9F3E44171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58ADF75-702A-4356-9BCB-CC47A071438A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{0525C57C-F6D3-4E5A-BABF-0921013F3FE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{0525C57C-F6D3-4E5A-BABF-0921013F3FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Budget " sheetId="3" r:id="rId1"/>
     <sheet name="Monthly Budget  (2)" sheetId="4" r:id="rId2"/>
     <sheet name="Monthly Budget - with new bill " sheetId="6" r:id="rId3"/>
     <sheet name="Monthly Budget - Formatted" sheetId="9" r:id="rId4"/>
-    <sheet name="MINIFS n MAXIFS" sheetId="5" r:id="rId5"/>
+    <sheet name="Data as Currency" sheetId="10" r:id="rId5"/>
+    <sheet name="Monthly Budget -chart" sheetId="12" r:id="rId6"/>
+    <sheet name="Data as Currency (2)" sheetId="11" r:id="rId7"/>
+    <sheet name="MINIFS n MAXIFS" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
   <si>
     <t>Bills</t>
   </si>
@@ -131,11 +134,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm/dd/ddd/yyyy/mmm"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,13 +166,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Bauhaus 93"/>
       <family val="5"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,18 +195,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,12 +220,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -229,25 +271,49 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4472C4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -257,6 +323,1576 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data as Currency (2)'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Data as Currency (2)'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data as Currency (2)'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54EB-47FE-99EB-402A9C16FD24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data as Currency (2)'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Data as Currency (2)'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data as Currency (2)'!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54EB-47FE-99EB-402A9C16FD24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data as Currency (2)'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Data as Currency (2)'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data as Currency (2)'!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-54EB-47FE-99EB-402A9C16FD24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data as Currency (2)'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Data as Currency (2)'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data as Currency (2)'!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-54EB-47FE-99EB-402A9C16FD24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data as Currency (2)'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Data as Currency (2)'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data as Currency (2)'!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-54EB-47FE-99EB-402A9C16FD24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data as Currency (2)'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Candy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Data as Currency (2)'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data as Currency (2)'!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-54EB-47FE-99EB-402A9C16FD24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="597900208"/>
+        <c:axId val="597903816"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="597900208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597903816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="597903816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597900208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7FE6657A-976F-4DA2-A9E7-9F1EC65DB5F8}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>251460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0624960F-CD40-C5A3-C725-82FEC1126AFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3870960" y="525780"/>
+          <a:ext cx="1379220" cy="2004060"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472C4">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>906780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Arrow: Left 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3924CAED-D055-57FE-04F7-F3A022279EA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="594360"/>
+          <a:ext cx="792480" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 67647"/>
+            <a:gd name="adj2" fmla="val 102941"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8659906" cy="6284259"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D64CDD9-20FD-73CD-9266-D602FB1DC32E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>251460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88A9698-D10F-4188-B7F9-B5B1B1DCE57D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3870960" y="525780"/>
+          <a:ext cx="1379220" cy="2004060"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472C4">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>906780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Left 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FAB6FD-5D4D-45E5-84E6-6C5C960555E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="594360"/>
+          <a:ext cx="792480" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 67647"/>
+            <a:gd name="adj2" fmla="val 102941"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1152,10 +2788,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64495D6E-49F5-467E-9DFF-67A752E163A3}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1169,43 +2805,43 @@
     <col min="9" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="20">
         <v>44562</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="20">
         <v>44593</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="20">
         <v>44621</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="20">
         <v>44652</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8">
@@ -1220,19 +2856,19 @@
       <c r="E3" s="8">
         <v>1100</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="17">
         <f>SUM(B3:E3)</f>
         <v>4100</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <f>F3/$F$9</f>
         <v>0.57023643949930458</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="J3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="8">
@@ -1247,17 +2883,17 @@
       <c r="E4" s="8">
         <v>125</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="17">
         <f>SUM(B4:E4)</f>
         <v>475</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f t="shared" ref="G4:G8" si="0">F4/$F$9</f>
         <v>6.6063977746870658E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="8">
@@ -1272,17 +2908,17 @@
       <c r="E5" s="8">
         <v>40</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="17">
         <f>SUM(B5:E5)</f>
         <v>190</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>2.6425591098748261E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8">
@@ -1297,17 +2933,17 @@
       <c r="E6" s="8">
         <v>150</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="17">
         <f>SUM(B6:E6)</f>
         <v>675</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
         <v>9.3880389429763567E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="8">
@@ -1322,69 +2958,70 @@
       <c r="E7" s="8">
         <v>400</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="17">
         <f>SUM(B7:E7)</f>
         <v>1325</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>0.18428372739916551</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="14">
         <v>100</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="14">
         <v>100</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="14">
         <v>125</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="14">
         <v>100</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="18">
         <f>SUM(B8:E8)</f>
         <v>425</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="15">
         <f t="shared" si="0"/>
         <v>5.9109874826147428E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:10" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="21">
         <f>SUM(B$3:B$8)</f>
         <v>1725</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="21">
         <f t="shared" ref="C9:E9" si="1">SUM(C$3:C$8)</f>
         <v>1750</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="21">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="21">
         <f t="shared" si="1"/>
         <v>1915</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="21">
         <f>SUM(F3:F8)</f>
         <v>7190</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="22">
         <f>SUM(G3:G8)</f>
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:10" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
@@ -1395,6 +3032,542 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C71DCEB-594A-4A64-9DC0-665B287FE183}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="8"/>
+    <col min="8" max="8" width="16.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20">
+        <v>44562</v>
+      </c>
+      <c r="C2" s="20">
+        <v>44593</v>
+      </c>
+      <c r="D2" s="20">
+        <v>44621</v>
+      </c>
+      <c r="E2" s="20">
+        <v>44652</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1100</v>
+      </c>
+      <c r="F3" s="24">
+        <f>SUM(B3:E3)</f>
+        <v>4100</v>
+      </c>
+      <c r="G3" s="30">
+        <f>F3/$F$9</f>
+        <v>0.57023643949930458</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="J3" s="9"/>
+      <c r="L3" s="30"/>
+    </row>
+    <row r="4" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27">
+        <v>125</v>
+      </c>
+      <c r="C4" s="27">
+        <v>125</v>
+      </c>
+      <c r="D4" s="27">
+        <v>100</v>
+      </c>
+      <c r="E4" s="27">
+        <v>125</v>
+      </c>
+      <c r="F4" s="24">
+        <f>SUM(B4:E4)</f>
+        <v>475</v>
+      </c>
+      <c r="G4" s="30">
+        <f t="shared" ref="G4:G8" si="0">F4/$F$9</f>
+        <v>6.6063977746870658E-2</v>
+      </c>
+      <c r="L4" s="30"/>
+    </row>
+    <row r="5" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="27">
+        <v>50</v>
+      </c>
+      <c r="C5" s="27">
+        <v>50</v>
+      </c>
+      <c r="D5" s="27">
+        <v>50</v>
+      </c>
+      <c r="E5" s="27">
+        <v>40</v>
+      </c>
+      <c r="F5" s="24">
+        <f>SUM(B5:E5)</f>
+        <v>190</v>
+      </c>
+      <c r="G5" s="30">
+        <f t="shared" si="0"/>
+        <v>2.6425591098748261E-2</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="27">
+        <v>150</v>
+      </c>
+      <c r="C6" s="27">
+        <v>200</v>
+      </c>
+      <c r="D6" s="27">
+        <v>175</v>
+      </c>
+      <c r="E6" s="27">
+        <v>150</v>
+      </c>
+      <c r="F6" s="24">
+        <f>SUM(B6:E6)</f>
+        <v>675</v>
+      </c>
+      <c r="G6" s="30">
+        <f t="shared" si="0"/>
+        <v>9.3880389429763567E-2</v>
+      </c>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="27">
+        <v>300</v>
+      </c>
+      <c r="C7" s="27">
+        <v>275</v>
+      </c>
+      <c r="D7" s="27">
+        <v>350</v>
+      </c>
+      <c r="E7" s="27">
+        <v>400</v>
+      </c>
+      <c r="F7" s="24">
+        <f>SUM(B7:E7)</f>
+        <v>1325</v>
+      </c>
+      <c r="G7" s="30">
+        <f t="shared" si="0"/>
+        <v>0.18428372739916551</v>
+      </c>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:17" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="28">
+        <v>100</v>
+      </c>
+      <c r="C8" s="28">
+        <v>100</v>
+      </c>
+      <c r="D8" s="28">
+        <v>125</v>
+      </c>
+      <c r="E8" s="28">
+        <v>100</v>
+      </c>
+      <c r="F8" s="25">
+        <f>SUM(B8:E8)</f>
+        <v>425</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="0"/>
+        <v>5.9109874826147428E-2</v>
+      </c>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:17" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="26">
+        <f>SUM(B$3:B$8)</f>
+        <v>1725</v>
+      </c>
+      <c r="C9" s="26">
+        <f t="shared" ref="C9:E9" si="1">SUM(C$3:C$8)</f>
+        <v>1750</v>
+      </c>
+      <c r="D9" s="26">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="1"/>
+        <v>1915</v>
+      </c>
+      <c r="F9" s="26">
+        <f>SUM(F3:F8)</f>
+        <v>7190</v>
+      </c>
+      <c r="G9" s="22">
+        <f>SUM(G3:G8)</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:17" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="30"/>
+      <c r="Q10" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:G9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535A9CC5-BBD6-42D3-9B63-06DB5ECA1EDE}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="8"/>
+    <col min="8" max="8" width="16.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20">
+        <v>44562</v>
+      </c>
+      <c r="C2" s="20">
+        <v>44593</v>
+      </c>
+      <c r="D2" s="20">
+        <v>44621</v>
+      </c>
+      <c r="E2" s="20">
+        <v>44652</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1100</v>
+      </c>
+      <c r="F3" s="24">
+        <f>SUM(B3:E3)</f>
+        <v>4100</v>
+      </c>
+      <c r="G3" s="30">
+        <f>F3/$F$9</f>
+        <v>0.57023643949930458</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="J3" s="9"/>
+      <c r="L3" s="30"/>
+    </row>
+    <row r="4" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27">
+        <v>125</v>
+      </c>
+      <c r="C4" s="27">
+        <v>125</v>
+      </c>
+      <c r="D4" s="27">
+        <v>100</v>
+      </c>
+      <c r="E4" s="27">
+        <v>125</v>
+      </c>
+      <c r="F4" s="24">
+        <f>SUM(B4:E4)</f>
+        <v>475</v>
+      </c>
+      <c r="G4" s="30">
+        <f t="shared" ref="G4:G8" si="0">F4/$F$9</f>
+        <v>6.6063977746870658E-2</v>
+      </c>
+      <c r="L4" s="30"/>
+    </row>
+    <row r="5" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="27">
+        <v>50</v>
+      </c>
+      <c r="C5" s="27">
+        <v>50</v>
+      </c>
+      <c r="D5" s="27">
+        <v>50</v>
+      </c>
+      <c r="E5" s="27">
+        <v>40</v>
+      </c>
+      <c r="F5" s="24">
+        <f>SUM(B5:E5)</f>
+        <v>190</v>
+      </c>
+      <c r="G5" s="30">
+        <f t="shared" si="0"/>
+        <v>2.6425591098748261E-2</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="27">
+        <v>150</v>
+      </c>
+      <c r="C6" s="27">
+        <v>200</v>
+      </c>
+      <c r="D6" s="27">
+        <v>175</v>
+      </c>
+      <c r="E6" s="27">
+        <v>150</v>
+      </c>
+      <c r="F6" s="24">
+        <f>SUM(B6:E6)</f>
+        <v>675</v>
+      </c>
+      <c r="G6" s="30">
+        <f t="shared" si="0"/>
+        <v>9.3880389429763567E-2</v>
+      </c>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="27">
+        <v>300</v>
+      </c>
+      <c r="C7" s="27">
+        <v>275</v>
+      </c>
+      <c r="D7" s="27">
+        <v>350</v>
+      </c>
+      <c r="E7" s="27">
+        <v>400</v>
+      </c>
+      <c r="F7" s="24">
+        <f>SUM(B7:E7)</f>
+        <v>1325</v>
+      </c>
+      <c r="G7" s="30">
+        <f t="shared" si="0"/>
+        <v>0.18428372739916551</v>
+      </c>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:17" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="28">
+        <v>100</v>
+      </c>
+      <c r="C8" s="28">
+        <v>100</v>
+      </c>
+      <c r="D8" s="28">
+        <v>125</v>
+      </c>
+      <c r="E8" s="28">
+        <v>100</v>
+      </c>
+      <c r="F8" s="25">
+        <f>SUM(B8:E8)</f>
+        <v>425</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="0"/>
+        <v>5.9109874826147428E-2</v>
+      </c>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:17" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="26">
+        <f>SUM(B$3:B$8)</f>
+        <v>1725</v>
+      </c>
+      <c r="C9" s="26">
+        <f t="shared" ref="C9:E9" si="1">SUM(C$3:C$8)</f>
+        <v>1750</v>
+      </c>
+      <c r="D9" s="26">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="1"/>
+        <v>1915</v>
+      </c>
+      <c r="F9" s="26">
+        <f>SUM(F3:F8)</f>
+        <v>7190</v>
+      </c>
+      <c r="G9" s="22">
+        <f>SUM(G3:G8)</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:17" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="30"/>
+      <c r="Q10" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:G9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB58E34-8B72-4003-899B-111F504A93AF}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H19"/>

--- a/13. Monthly Budget.xlsx
+++ b/13. Monthly Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moin\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58ADF75-702A-4356-9BCB-CC47A071438A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B64F96-56E8-4CB3-B8BF-9E7980064E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{0525C57C-F6D3-4E5A-BABF-0921013F3FE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{0525C57C-F6D3-4E5A-BABF-0921013F3FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Budget " sheetId="3" r:id="rId1"/>
@@ -372,6 +372,250 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data as Currency'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Data as Currency'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm/yyyy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data as Currency'!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2E7-482B-815A-35E3CC4B5174}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1052,8 +1296,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1110,7 +1394,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1161,6 +1445,525 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1559,7 +2362,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7FE6657A-976F-4DA2-A9E7-9F1EC65DB5F8}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1709,6 +2512,42 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566F5FE0-F68B-1B76-0953-3105C815087F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3033,11 +3872,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C71DCEB-594A-4A64-9DC0-665B287FE183}">
-  <sheetPr codeName="Sheet6"/>
+  <sheetPr codeName="Sheet6">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3046,7 +3887,7 @@
     <col min="2" max="4" width="11.6640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="8"/>
+    <col min="7" max="7" width="19.5546875" style="8" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="8"/>
   </cols>
@@ -3097,18 +3938,18 @@
         <v>1000</v>
       </c>
       <c r="D3" s="23">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E3" s="23">
         <v>1100</v>
       </c>
       <c r="F3" s="24">
         <f>SUM(B3:E3)</f>
-        <v>4100</v>
+        <v>4700</v>
       </c>
       <c r="G3" s="30">
         <f>F3/$F$9</f>
-        <v>0.57023643949930458</v>
+        <v>0.6033376123234917</v>
       </c>
       <c r="H3" s="10"/>
       <c r="J3" s="9"/>
@@ -3136,7 +3977,7 @@
       </c>
       <c r="G4" s="30">
         <f t="shared" ref="G4:G8" si="0">F4/$F$9</f>
-        <v>6.6063977746870658E-2</v>
+        <v>6.097560975609756E-2</v>
       </c>
       <c r="L4" s="30"/>
     </row>
@@ -3162,7 +4003,7 @@
       </c>
       <c r="G5" s="30">
         <f t="shared" si="0"/>
-        <v>2.6425591098748261E-2</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="H5" s="29"/>
       <c r="L5" s="30"/>
@@ -3189,7 +4030,7 @@
       </c>
       <c r="G6" s="30">
         <f t="shared" si="0"/>
-        <v>9.3880389429763567E-2</v>
+        <v>8.6649550706033376E-2</v>
       </c>
       <c r="L6" s="30"/>
     </row>
@@ -3215,7 +4056,7 @@
       </c>
       <c r="G7" s="30">
         <f t="shared" si="0"/>
-        <v>0.18428372739916551</v>
+        <v>0.17008985879332478</v>
       </c>
       <c r="L7" s="30"/>
     </row>
@@ -3241,7 +4082,7 @@
       </c>
       <c r="G8" s="31">
         <f t="shared" si="0"/>
-        <v>5.9109874826147428E-2</v>
+        <v>5.4557124518613609E-2</v>
       </c>
       <c r="L8" s="30"/>
     </row>
@@ -3259,7 +4100,7 @@
       </c>
       <c r="D9" s="26">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
@@ -3267,11 +4108,11 @@
       </c>
       <c r="F9" s="26">
         <f>SUM(F3:F8)</f>
-        <v>7190</v>
+        <v>7790</v>
       </c>
       <c r="G9" s="22">
         <f>SUM(G3:G8)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="L9" s="30"/>
     </row>
@@ -3293,8 +4134,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;RPage &amp;P</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
